--- a/methodologie/filtres/perimetre_maritime_formacode.xlsx
+++ b/methodologie/filtres/perimetre_maritime_formacode.xlsx
@@ -377,7 +377,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -389,7 +389,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -401,7 +401,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -413,7 +413,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -425,7 +425,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -437,7 +437,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -449,7 +449,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pêches et cultures marines</t>
+          <t>Pêches et Cultures Marines</t>
         </is>
       </c>
     </row>
@@ -461,7 +461,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pêches et cultures marines</t>
+          <t>Pêches et Cultures Marines</t>
         </is>
       </c>
     </row>
@@ -473,7 +473,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pêches et cultures marines</t>
+          <t>Pêches et Cultures Marines</t>
         </is>
       </c>
     </row>
@@ -485,7 +485,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pêches et cultures marines</t>
+          <t>Pêches et Cultures Marines</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -509,7 +509,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -533,7 +533,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -593,7 +593,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Défense et administrations maritimes</t>
+          <t>Défense et Administrations Maritimes</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Défense et administrations maritimes</t>
+          <t>Défense et Administrations Maritimes</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Hôtellerie-restauration</t>
+          <t>Hôtellerie-Restauration</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -689,7 +689,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -725,7 +725,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -773,7 +773,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -785,7 +785,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -809,7 +809,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -833,7 +833,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Pêches et cultures marines</t>
+          <t>Pêches et Cultures Marines</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Pêches et cultures marines</t>
+          <t>Pêches et Cultures Marines</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Pêches et cultures marines</t>
+          <t>Pêches et Cultures Marines</t>
         </is>
       </c>
     </row>
@@ -893,7 +893,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Pêches et cultures marines</t>
+          <t>Pêches et Cultures Marines</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Pêches et cultures marines</t>
+          <t>Pêches et Cultures Marines</t>
         </is>
       </c>
     </row>
@@ -917,7 +917,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Pêches et cultures marines</t>
+          <t>Pêches et Cultures Marines</t>
         </is>
       </c>
     </row>
@@ -929,7 +929,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Pêches et cultures marines</t>
+          <t>Pêches et Cultures Marines</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Pêches et cultures marines</t>
+          <t>Pêches et Cultures Marines</t>
         </is>
       </c>
     </row>
@@ -953,7 +953,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Pêches et cultures marines</t>
+          <t>Pêches et Cultures Marines</t>
         </is>
       </c>
     </row>
@@ -965,7 +965,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Pêches et cultures marines</t>
+          <t>Pêches et Cultures Marines</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Pêches et cultures marines</t>
+          <t>Pêches et Cultures Marines</t>
         </is>
       </c>
     </row>
@@ -989,7 +989,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Pêches et cultures marines</t>
+          <t>Pêches et Cultures Marines</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Pêches et cultures marines</t>
+          <t>Pêches et Cultures Marines</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Pêches et cultures marines</t>
+          <t>Pêches et Cultures Marines</t>
         </is>
       </c>
     </row>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Pêches et cultures marines</t>
+          <t>Pêches et Cultures Marines</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Pêches et cultures marines</t>
+          <t>Pêches et Cultures Marines</t>
         </is>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Pêches et cultures marines</t>
+          <t>Pêches et Cultures Marines</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Pêches et cultures marines</t>
+          <t>Pêches et Cultures Marines</t>
         </is>
       </c>
     </row>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Pêches et cultures marines</t>
+          <t>Pêches et Cultures Marines</t>
         </is>
       </c>
     </row>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Pêches et cultures marines</t>
+          <t>Pêches et Cultures Marines</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Pêches et cultures marines</t>
+          <t>Pêches et Cultures Marines</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transformation des produits de la mer</t>
+          <t>Transformation des Produits de la Mer</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transformation des produits de la mer</t>
+          <t>Transformation des Produits de la Mer</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transformation des produits de la mer</t>
+          <t>Transformation des Produits de la Mer</t>
         </is>
       </c>
     </row>
@@ -1145,7 +1145,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transformation des produits de la mer</t>
+          <t>Transformation des Produits de la Mer</t>
         </is>
       </c>
     </row>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transformation des produits de la mer</t>
+          <t>Transformation des Produits de la Mer</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transformation des produits de la mer</t>
+          <t>Transformation des Produits de la Mer</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1433,7 +1433,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1505,7 +1505,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1625,7 +1625,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Construction et maintenance navale</t>
+          <t>Construction et Maintenance Navale</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>R&amp;D et ingénierie maritime</t>
+          <t>R&amp;D et Ingénierie Maritime</t>
         </is>
       </c>
     </row>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>R&amp;D et ingénierie maritime</t>
+          <t>R&amp;D et Ingénierie Maritime</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -1997,7 +1997,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2009,7 +2009,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2069,7 +2069,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2093,7 +2093,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2225,7 +2225,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2249,7 +2249,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2369,7 +2369,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2381,7 +2381,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2465,7 +2465,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2525,7 +2525,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2573,7 +2573,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transformation des produits de la mer</t>
+          <t>Transformation des Produits de la Mer</t>
         </is>
       </c>
     </row>
@@ -2621,7 +2621,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2645,7 +2645,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Hôtellerie-restauration</t>
+          <t>Hôtellerie-Restauration</t>
         </is>
       </c>
     </row>
@@ -2693,7 +2693,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Hôtellerie-restauration</t>
+          <t>Hôtellerie-Restauration</t>
         </is>
       </c>
     </row>
@@ -2705,7 +2705,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -2777,7 +2777,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -2789,7 +2789,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -2885,7 +2885,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Hôtellerie-restauration</t>
+          <t>Hôtellerie-Restauration</t>
         </is>
       </c>
     </row>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -2909,7 +2909,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -2933,7 +2933,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -2981,7 +2981,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -2993,7 +2993,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Hôtellerie-restauration</t>
+          <t>Hôtellerie-Restauration</t>
         </is>
       </c>
     </row>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Hôtellerie-restauration</t>
+          <t>Hôtellerie-Restauration</t>
         </is>
       </c>
     </row>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Hôtellerie-restauration</t>
+          <t>Hôtellerie-Restauration</t>
         </is>
       </c>
     </row>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Hôtellerie-restauration</t>
+          <t>Hôtellerie-Restauration</t>
         </is>
       </c>
     </row>
@@ -3053,7 +3053,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Hôtellerie-restauration</t>
+          <t>Hôtellerie-Restauration</t>
         </is>
       </c>
     </row>
@@ -3065,7 +3065,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Hôtellerie-restauration</t>
+          <t>Hôtellerie-Restauration</t>
         </is>
       </c>
     </row>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Hôtellerie-restauration</t>
+          <t>Hôtellerie-Restauration</t>
         </is>
       </c>
     </row>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Hôtellerie-restauration</t>
+          <t>Hôtellerie-Restauration</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Hôtellerie-restauration</t>
+          <t>Hôtellerie-Restauration</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Hôtellerie-restauration</t>
+          <t>Hôtellerie-Restauration</t>
         </is>
       </c>
     </row>
@@ -3125,7 +3125,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Hôtellerie-restauration</t>
+          <t>Hôtellerie-Restauration</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Hôtellerie-restauration</t>
+          <t>Hôtellerie-Restauration</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Hôtellerie-restauration</t>
+          <t>Hôtellerie-Restauration</t>
         </is>
       </c>
     </row>
@@ -3161,7 +3161,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Hôtellerie-restauration</t>
+          <t>Hôtellerie-Restauration</t>
         </is>
       </c>
     </row>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Hôtellerie-restauration</t>
+          <t>Hôtellerie-Restauration</t>
         </is>
       </c>
     </row>
@@ -3185,7 +3185,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Hôtellerie-restauration</t>
+          <t>Hôtellerie-Restauration</t>
         </is>
       </c>
     </row>
@@ -3197,7 +3197,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Hôtellerie-restauration</t>
+          <t>Hôtellerie-Restauration</t>
         </is>
       </c>
     </row>
@@ -3209,7 +3209,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Hôtellerie-restauration</t>
+          <t>Hôtellerie-Restauration</t>
         </is>
       </c>
     </row>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Hôtellerie-restauration</t>
+          <t>Hôtellerie-Restauration</t>
         </is>
       </c>
     </row>
@@ -3233,7 +3233,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Hôtellerie-restauration</t>
+          <t>Hôtellerie-Restauration</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Hôtellerie-restauration</t>
+          <t>Hôtellerie-Restauration</t>
         </is>
       </c>
     </row>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Hôtellerie-restauration</t>
+          <t>Hôtellerie-Restauration</t>
         </is>
       </c>
     </row>
@@ -3269,7 +3269,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Hôtellerie-restauration</t>
+          <t>Hôtellerie-Restauration</t>
         </is>
       </c>
     </row>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Hôtellerie-restauration</t>
+          <t>Hôtellerie-Restauration</t>
         </is>
       </c>
     </row>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Hôtellerie-restauration</t>
+          <t>Hôtellerie-Restauration</t>
         </is>
       </c>
     </row>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Hôtellerie-restauration</t>
+          <t>Hôtellerie-Restauration</t>
         </is>
       </c>
     </row>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Hôtellerie-restauration</t>
+          <t>Hôtellerie-Restauration</t>
         </is>
       </c>
     </row>
@@ -3329,7 +3329,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Hôtellerie-restauration</t>
+          <t>Hôtellerie-Restauration</t>
         </is>
       </c>
     </row>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Hôtellerie-restauration</t>
+          <t>Hôtellerie-Restauration</t>
         </is>
       </c>
     </row>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Hôtellerie-restauration</t>
+          <t>Hôtellerie-Restauration</t>
         </is>
       </c>
     </row>
@@ -3365,7 +3365,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Hôtellerie-restauration</t>
+          <t>Hôtellerie-Restauration</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Hôtellerie-restauration</t>
+          <t>Hôtellerie-Restauration</t>
         </is>
       </c>
     </row>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Hôtellerie-restauration</t>
+          <t>Hôtellerie-Restauration</t>
         </is>
       </c>
     </row>
@@ -3401,7 +3401,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Hôtellerie-restauration</t>
+          <t>Hôtellerie-Restauration</t>
         </is>
       </c>
     </row>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Hôtellerie-restauration</t>
+          <t>Hôtellerie-Restauration</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Hôtellerie-restauration</t>
+          <t>Hôtellerie-Restauration</t>
         </is>
       </c>
     </row>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Hôtellerie-restauration</t>
+          <t>Hôtellerie-Restauration</t>
         </is>
       </c>
     </row>
@@ -3449,7 +3449,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Hôtellerie-restauration</t>
+          <t>Hôtellerie-Restauration</t>
         </is>
       </c>
     </row>
@@ -3461,7 +3461,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Hôtellerie-restauration</t>
+          <t>Hôtellerie-Restauration</t>
         </is>
       </c>
     </row>
@@ -3473,7 +3473,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Hôtellerie-restauration</t>
+          <t>Hôtellerie-Restauration</t>
         </is>
       </c>
     </row>
@@ -3485,7 +3485,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Services portuaires et nautiques</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
@@ -3545,7 +3545,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Activités et loisirs littoraux</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
